--- a/orders_formatada.xlsx
+++ b/orders_formatada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme Rodrigues\Documents\DEV\Navio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E57B8-0057-4064-97C9-EF1230F0ECFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2902D2E2-819A-4472-9B13-6A845C0A1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35730" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{F23B3725-04D9-4B56-B96F-8EDBF8F3A1F9}"/>
+    <workbookView xWindow="29850" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{F23B3725-04D9-4B56-B96F-8EDBF8F3A1F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -482,7 +482,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -825,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A61C0A2-92CA-4057-9FF2-581A58480AA4}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +835,7 @@
     <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +882,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -924,14 +923,11 @@
       <c r="N2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="12">
         <v>45381</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-    </row>
-    <row r="3" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -948,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="6">
-        <v>252</v>
+        <v>1800</v>
       </c>
       <c r="G3" s="7">
         <v>252</v>
@@ -970,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -1009,7 +1005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -1048,7 +1044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -1087,7 +1083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -1126,7 +1122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -1165,7 +1161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -1204,7 +1200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -1243,7 +1239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -1282,7 +1278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -1321,7 +1317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -1360,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -1399,7 +1395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -1438,7 +1434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -2419,18 +2415,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2578,14 +2574,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBDD4E5-4090-44AE-A602-4E0C2B12A4A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0A79B18-2A4C-4F5B-937E-7237ED7E1382}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -2597,6 +2585,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBDD4E5-4090-44AE-A602-4E0C2B12A4A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
